--- a/raw_data/KEEN ONE/Byrnes/2014/Baker North Entry 2014/Baker North Site info 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/Baker North Entry 2014/Baker North Site info 2014.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -887,13 +887,13 @@
         <v>42.538040000000002</v>
       </c>
       <c r="J2">
-        <v>70.786460000000005</v>
+        <v>-70.786460000000005</v>
       </c>
       <c r="K2">
         <v>42.538110000000003</v>
       </c>
       <c r="L2">
-        <v>70.786829999999995</v>
+        <v>-70.786829999999995</v>
       </c>
       <c r="M2">
         <v>27</v>
@@ -937,13 +937,13 @@
         <v>42.537439999999997</v>
       </c>
       <c r="J3">
-        <v>70.784940000000006</v>
+        <v>-70.784940000000006</v>
       </c>
       <c r="K3">
         <v>42.537700000000001</v>
       </c>
       <c r="L3">
-        <v>70.7851</v>
+        <v>-70.7851</v>
       </c>
       <c r="M3">
         <v>24</v>
@@ -987,13 +987,13 @@
         <v>42.536960000000001</v>
       </c>
       <c r="J4">
-        <v>70.783839999999998</v>
+        <v>-70.783839999999998</v>
       </c>
       <c r="K4" s="2">
         <v>42.536920000000002</v>
       </c>
       <c r="L4">
-        <v>70.784379999999999</v>
+        <v>-70.784379999999999</v>
       </c>
       <c r="M4">
         <v>30</v>
@@ -1037,13 +1037,13 @@
         <v>42.534950000000002</v>
       </c>
       <c r="J5">
-        <v>70.781270000000006</v>
+        <v>-70.781270000000006</v>
       </c>
       <c r="K5">
         <v>42.535290000000003</v>
       </c>
       <c r="L5">
-        <v>70.78143</v>
+        <v>-70.78143</v>
       </c>
       <c r="M5">
         <v>30</v>

--- a/raw_data/KEEN ONE/Byrnes/2014/Baker North Entry 2014/Baker North Site info 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/Baker North Entry 2014/Baker North Site info 2014.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Transect 2</t>
   </si>
@@ -202,6 +202,9 @@
   <si>
     <t>name in GPS (BKN 4A- 2014/ BKN 4B- 2014)</t>
   </si>
+  <si>
+    <t>Changed depth to m</t>
+  </si>
 </sst>
 </file>
 
@@ -248,8 +251,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,7 +331,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -357,6 +362,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -387,6 +393,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -896,10 +903,10 @@
         <v>-70.786829999999995</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>9.1</v>
       </c>
       <c r="O2">
         <v>4.5</v>
@@ -946,10 +953,10 @@
         <v>-70.7851</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>7.3</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -996,10 +1003,10 @@
         <v>-70.784379999999999</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>9.1</v>
       </c>
       <c r="N4">
-        <v>25</v>
+        <v>7.6</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -1046,10 +1053,10 @@
         <v>-70.78143</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>9.1</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>7.3</v>
       </c>
       <c r="O5">
         <v>4.5</v>
@@ -50491,10 +50498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -50548,6 +50555,14 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>43204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
